--- a/base de datos/FrioFase1.xlsx
+++ b/base de datos/FrioFase1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>ID_DETALLE</t>
   </si>
@@ -65,13 +65,10 @@
     <t>NIT_RUT</t>
   </si>
   <si>
-    <t>CLI001</t>
-  </si>
-  <si>
-    <t>Prueba1</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
   </si>
   <si>
     <t>NOMBRE</t>
@@ -96,15 +93,16 @@
   </si>
   <si>
     <t>PRECIO_DIA_EXCESO</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy h:mm:ss"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="10.0"/>
@@ -138,14 +136,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -393,7 +394,7 @@
     <col customWidth="1" min="4" max="4" width="22.0"/>
     <col customWidth="1" min="5" max="5" width="26.38"/>
     <col customWidth="1" min="6" max="6" width="26.0"/>
-    <col customWidth="1" min="7" max="7" width="11.5"/>
+    <col customWidth="1" min="7" max="8" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -418,6 +419,10 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -444,7 +449,7 @@
     <col customWidth="1" min="5" max="5" width="31.13"/>
     <col customWidth="1" min="6" max="6" width="16.75"/>
     <col customWidth="1" min="7" max="7" width="15.63"/>
-    <col customWidth="1" min="8" max="8" width="11.25"/>
+    <col customWidth="1" min="8" max="9" width="11.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,6 +477,13 @@
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="C3" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -506,25 +518,12 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>111.0</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -549,6 +548,7 @@
     <col customWidth="1" min="2" max="2" width="10.75"/>
     <col customWidth="1" min="3" max="3" width="26.38"/>
     <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="10.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,13 +556,16 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -589,31 +592,35 @@
     <col customWidth="1" min="4" max="4" width="23.0"/>
     <col customWidth="1" min="5" max="5" width="22.63"/>
     <col customWidth="1" min="6" max="6" width="25.63"/>
-    <col customWidth="1" min="7" max="7" width="10.13"/>
+    <col customWidth="1" min="7" max="8" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="G2" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
